--- a/All Scrapped Excels/Doos-Butacas.xlsx
+++ b/All Scrapped Excels/Doos-Butacas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Company</t>
         </is>
       </c>
     </row>
@@ -479,6 +484,11 @@
           <t xml:space="preserve">lounge Blur madera </t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t xml:space="preserve">Amable </t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t xml:space="preserve">Aurora </t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t xml:space="preserve">Boxy </t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t xml:space="preserve">Cleo madera </t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t xml:space="preserve">Cleo metal </t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t xml:space="preserve">giratorio King </t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t xml:space="preserve">mecedora King </t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t xml:space="preserve">Paris </t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -702,6 +752,11 @@
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">lounge Blur metal </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Doos</t>
         </is>
       </c>
     </row>
